--- a/Code/Results/Cases/Case_1_187/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_187/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9806198081893823</v>
+        <v>1.020408781130923</v>
       </c>
       <c r="D2">
-        <v>1.02984372281196</v>
+        <v>1.02878434037026</v>
       </c>
       <c r="E2">
-        <v>0.9981523423559708</v>
+        <v>1.030707764241218</v>
       </c>
       <c r="F2">
-        <v>1.005747144310296</v>
+        <v>1.040100143588177</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046855800545806</v>
+        <v>1.030696972397081</v>
       </c>
       <c r="J2">
-        <v>1.003396043054502</v>
+        <v>1.0256060573022</v>
       </c>
       <c r="K2">
-        <v>1.040902373216337</v>
+        <v>1.031600150515</v>
       </c>
       <c r="L2">
-        <v>1.009637478143323</v>
+        <v>1.033517994970504</v>
       </c>
       <c r="M2">
-        <v>1.01712698876695</v>
+        <v>1.042883451044268</v>
       </c>
       <c r="N2">
-        <v>1.004900745318933</v>
+        <v>1.012560791950009</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9852173136104175</v>
+        <v>1.021393349247925</v>
       </c>
       <c r="D3">
-        <v>1.031567992376903</v>
+        <v>1.02914128211441</v>
       </c>
       <c r="E3">
-        <v>1.002001043751981</v>
+        <v>1.031585593865843</v>
       </c>
       <c r="F3">
-        <v>1.010023323002897</v>
+        <v>1.041071780442473</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0472936471838</v>
+        <v>1.030723332733326</v>
       </c>
       <c r="J3">
-        <v>1.006119245651095</v>
+        <v>1.026227617167126</v>
       </c>
       <c r="K3">
-        <v>1.041812279993966</v>
+        <v>1.03176631719081</v>
       </c>
       <c r="L3">
-        <v>1.012608384718781</v>
+        <v>1.034204049394636</v>
       </c>
       <c r="M3">
-        <v>1.020529540033754</v>
+        <v>1.043665017484528</v>
       </c>
       <c r="N3">
-        <v>1.005844389297141</v>
+        <v>1.012771732068521</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9881330807238877</v>
+        <v>1.022031139767109</v>
       </c>
       <c r="D4">
-        <v>1.032663882852586</v>
+        <v>1.029372071347479</v>
       </c>
       <c r="E4">
-        <v>1.004447868910543</v>
+        <v>1.032154518113247</v>
       </c>
       <c r="F4">
-        <v>1.012740080680705</v>
+        <v>1.041701271679765</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047559949243204</v>
+        <v>1.030738892160625</v>
       </c>
       <c r="J4">
-        <v>1.007845293061072</v>
+        <v>1.026629947757843</v>
       </c>
       <c r="K4">
-        <v>1.04238344082633</v>
+        <v>1.031872913766997</v>
       </c>
       <c r="L4">
-        <v>1.014492906862368</v>
+        <v>1.03464824669775</v>
       </c>
       <c r="M4">
-        <v>1.022687137912949</v>
+        <v>1.044170903434631</v>
       </c>
       <c r="N4">
-        <v>1.006441821986479</v>
+        <v>1.012908136370038</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9893452464291888</v>
+        <v>1.022299436029145</v>
       </c>
       <c r="D5">
-        <v>1.033119905651557</v>
+        <v>1.029469050915985</v>
       </c>
       <c r="E5">
-        <v>1.005466457123137</v>
+        <v>1.032393910499154</v>
       </c>
       <c r="F5">
-        <v>1.013870595303037</v>
+        <v>1.041966094538081</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047667859709847</v>
+        <v>1.030745074042366</v>
       </c>
       <c r="J5">
-        <v>1.008562579295219</v>
+        <v>1.026799120254467</v>
       </c>
       <c r="K5">
-        <v>1.042619379084448</v>
+        <v>1.031917504295126</v>
       </c>
       <c r="L5">
-        <v>1.015276395229864</v>
+        <v>1.034835051958904</v>
       </c>
       <c r="M5">
-        <v>1.02358397151332</v>
+        <v>1.044383615039873</v>
       </c>
       <c r="N5">
-        <v>1.006689924885885</v>
+        <v>1.012965459295459</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9895479905092651</v>
+        <v>1.022344494051537</v>
       </c>
       <c r="D6">
-        <v>1.033196200503515</v>
+        <v>1.029485331557471</v>
       </c>
       <c r="E6">
-        <v>1.005636903155306</v>
+        <v>1.032434118203549</v>
       </c>
       <c r="F6">
-        <v>1.014059744444098</v>
+        <v>1.042010570256145</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047685742118581</v>
+        <v>1.030746090914481</v>
       </c>
       <c r="J6">
-        <v>1.008682533547139</v>
+        <v>1.02682752695777</v>
       </c>
       <c r="K6">
-        <v>1.04265875023947</v>
+        <v>1.031924978143245</v>
       </c>
       <c r="L6">
-        <v>1.015407440780108</v>
+        <v>1.03486642115208</v>
       </c>
       <c r="M6">
-        <v>1.023733963845085</v>
+        <v>1.044419332398107</v>
       </c>
       <c r="N6">
-        <v>1.006731405807179</v>
+        <v>1.012975082798957</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9881493305845157</v>
+        <v>1.022034724091119</v>
       </c>
       <c r="D7">
-        <v>1.032669994603292</v>
+        <v>1.029373367369667</v>
       </c>
       <c r="E7">
-        <v>1.00446151838004</v>
+        <v>1.032157716036278</v>
       </c>
       <c r="F7">
-        <v>1.012755231761999</v>
+        <v>1.041704809531519</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047561406994598</v>
+        <v>1.030738976176053</v>
       </c>
       <c r="J7">
-        <v>1.007854909893295</v>
+        <v>1.02663220812141</v>
       </c>
       <c r="K7">
-        <v>1.042386609810804</v>
+        <v>1.031873510464511</v>
       </c>
       <c r="L7">
-        <v>1.014503409928169</v>
+        <v>1.034650742545679</v>
       </c>
       <c r="M7">
-        <v>1.022699161178293</v>
+        <v>1.044173745553044</v>
       </c>
       <c r="N7">
-        <v>1.006445149042569</v>
+        <v>1.012908902406481</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9821861283455182</v>
+        <v>1.02074137332579</v>
       </c>
       <c r="D8">
-        <v>1.030430588336739</v>
+        <v>1.028905005672677</v>
       </c>
       <c r="E8">
-        <v>0.9994622713433675</v>
+        <v>1.031004241791601</v>
       </c>
       <c r="F8">
-        <v>1.007202950633257</v>
+        <v>1.040428351085138</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047007314553761</v>
+        <v>1.030706190575577</v>
       </c>
       <c r="J8">
-        <v>1.004324002397106</v>
+        <v>1.025816086970659</v>
       </c>
       <c r="K8">
-        <v>1.041213550229488</v>
+        <v>1.031656497894039</v>
       </c>
       <c r="L8">
-        <v>1.010649531435119</v>
+        <v>1.033749792935448</v>
       </c>
       <c r="M8">
-        <v>1.018286229406399</v>
+        <v>1.04314755118848</v>
       </c>
       <c r="N8">
-        <v>1.005222439290274</v>
+        <v>1.012632098166917</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.971200003278783</v>
+        <v>1.018467783051723</v>
       </c>
       <c r="D9">
-        <v>1.02632992151654</v>
+        <v>1.028078437634381</v>
       </c>
       <c r="E9">
-        <v>0.9903020503903581</v>
+        <v>1.028978692363243</v>
       </c>
       <c r="F9">
-        <v>0.997014982466165</v>
+        <v>1.038185079370054</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045899165221448</v>
+        <v>1.030636984707148</v>
       </c>
       <c r="J9">
-        <v>0.9978124242157418</v>
+        <v>1.024379081062558</v>
       </c>
       <c r="K9">
-        <v>1.039009784598967</v>
+        <v>1.031267074970936</v>
       </c>
       <c r="L9">
-        <v>1.003554454411907</v>
+        <v>1.032164345964668</v>
       </c>
       <c r="M9">
-        <v>1.010156675863706</v>
+        <v>1.041340545575237</v>
       </c>
       <c r="N9">
-        <v>1.002962508759375</v>
+        <v>1.012143675226395</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9635165466039105</v>
+        <v>1.016955762872941</v>
       </c>
       <c r="D10">
-        <v>1.023488268160119</v>
+        <v>1.027526673793902</v>
       </c>
       <c r="E10">
-        <v>0.9839333948231179</v>
+        <v>1.027633114536495</v>
       </c>
       <c r="F10">
-        <v>0.9899222239326967</v>
+        <v>1.036693684458129</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045069601561715</v>
+        <v>1.030583208002578</v>
       </c>
       <c r="J10">
-        <v>0.9932563603289235</v>
+        <v>1.023421863183637</v>
       </c>
       <c r="K10">
-        <v>1.037446001106511</v>
+        <v>1.031002822270585</v>
       </c>
       <c r="L10">
-        <v>0.9985989252312641</v>
+        <v>1.031108875798346</v>
       </c>
       <c r="M10">
-        <v>1.004475851346427</v>
+        <v>1.040136806409196</v>
       </c>
       <c r="N10">
-        <v>1.001378329271645</v>
+        <v>1.011817638421183</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9600950770818928</v>
+        <v>1.016301927770907</v>
       </c>
       <c r="D11">
-        <v>1.022231269718854</v>
+        <v>1.027287610094918</v>
       </c>
       <c r="E11">
-        <v>0.9811073232808301</v>
+        <v>1.027051614499201</v>
       </c>
       <c r="F11">
-        <v>0.986772609994595</v>
+        <v>1.036048887236079</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044688314360252</v>
+        <v>1.030558120182267</v>
       </c>
       <c r="J11">
-        <v>0.9912276211910956</v>
+        <v>1.023007572705944</v>
       </c>
       <c r="K11">
-        <v>1.036745771441983</v>
+        <v>1.030887315303973</v>
       </c>
       <c r="L11">
-        <v>0.9963945447183923</v>
+        <v>1.030652211324026</v>
       </c>
       <c r="M11">
-        <v>1.001948362280266</v>
+        <v>1.03961580956776</v>
       </c>
       <c r="N11">
-        <v>1.00067233422991</v>
+        <v>1.011676365300691</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9588091448682701</v>
+        <v>1.016059196967308</v>
       </c>
       <c r="D12">
-        <v>1.021760290815596</v>
+        <v>1.027198791374191</v>
       </c>
       <c r="E12">
-        <v>0.9800467411850489</v>
+        <v>1.026835792493957</v>
       </c>
       <c r="F12">
-        <v>0.9855902771562943</v>
+        <v>1.035809530330271</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044543319586529</v>
+        <v>1.030548531491896</v>
       </c>
       <c r="J12">
-        <v>0.9904652003964327</v>
+        <v>1.022853716187377</v>
       </c>
       <c r="K12">
-        <v>1.036482144050047</v>
+        <v>1.030844249440951</v>
       </c>
       <c r="L12">
-        <v>0.9955664650863845</v>
+        <v>1.030482640929205</v>
       </c>
       <c r="M12">
-        <v>1.000998851534844</v>
+        <v>1.039422323864938</v>
       </c>
       <c r="N12">
-        <v>1.000406935641174</v>
+        <v>1.01162387593721</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9590856769242014</v>
+        <v>1.016111257536946</v>
       </c>
       <c r="D13">
-        <v>1.021861503162367</v>
+        <v>1.027217844153525</v>
       </c>
       <c r="E13">
-        <v>0.980274740485674</v>
+        <v>1.026882079200083</v>
       </c>
       <c r="F13">
-        <v>0.9858444647523463</v>
+        <v>1.035860866413929</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044574574702574</v>
+        <v>1.030550600501898</v>
       </c>
       <c r="J13">
-        <v>0.990629150671847</v>
+        <v>1.02288671759089</v>
       </c>
       <c r="K13">
-        <v>1.036538853810755</v>
+        <v>1.030853494497589</v>
       </c>
       <c r="L13">
-        <v>0.9957445185874105</v>
+        <v>1.030519011845939</v>
       </c>
       <c r="M13">
-        <v>1.001203017331443</v>
+        <v>1.03946382557016</v>
       </c>
       <c r="N13">
-        <v>1.000464010100618</v>
+        <v>1.011635135722592</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.959989093605356</v>
+        <v>1.016281860857633</v>
       </c>
       <c r="D14">
-        <v>1.022192422070634</v>
+        <v>1.027280268703587</v>
       </c>
       <c r="E14">
-        <v>0.9810198801157443</v>
+        <v>1.027033771049288</v>
       </c>
       <c r="F14">
-        <v>0.9866751353804818</v>
+        <v>1.036029098862666</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044676398051449</v>
+        <v>1.030557333080575</v>
       </c>
       <c r="J14">
-        <v>0.9911647826627006</v>
+        <v>1.022994854274154</v>
       </c>
       <c r="K14">
-        <v>1.03672405231065</v>
+        <v>1.030883758751432</v>
       </c>
       <c r="L14">
-        <v>0.9963262874319857</v>
+        <v>1.030638193452703</v>
       </c>
       <c r="M14">
-        <v>1.001870096636981</v>
+        <v>1.039599815243887</v>
       </c>
       <c r="N14">
-        <v>1.000650461684127</v>
+        <v>1.011672026801971</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9605436981580403</v>
+        <v>1.016386992789059</v>
       </c>
       <c r="D15">
-        <v>1.022395769681071</v>
+        <v>1.02731872796747</v>
       </c>
       <c r="E15">
-        <v>0.9814775291343919</v>
+        <v>1.027127256361768</v>
       </c>
       <c r="F15">
-        <v>0.9871852722923649</v>
+        <v>1.036132772273709</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044738686953977</v>
+        <v>1.030561445496355</v>
       </c>
       <c r="J15">
-        <v>0.9914936154917114</v>
+        <v>1.023061484771576</v>
       </c>
       <c r="K15">
-        <v>1.03683768947314</v>
+        <v>1.030902384207306</v>
       </c>
       <c r="L15">
-        <v>0.9966834908254631</v>
+        <v>1.030711632504841</v>
       </c>
       <c r="M15">
-        <v>1.002279673536058</v>
+        <v>1.039683607737742</v>
       </c>
       <c r="N15">
-        <v>1.000764917161247</v>
+        <v>1.011694754737308</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9637415563998702</v>
+        <v>1.016999174331396</v>
       </c>
       <c r="D16">
-        <v>1.023571124539334</v>
+        <v>1.027542536766567</v>
       </c>
       <c r="E16">
-        <v>0.9841194624226665</v>
+        <v>1.027671730978089</v>
       </c>
       <c r="F16">
-        <v>0.9901295473875461</v>
+        <v>1.036736498420884</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045094436905169</v>
+        <v>1.030584835097339</v>
       </c>
       <c r="J16">
-        <v>0.9933897846468059</v>
+        <v>1.02344936236486</v>
       </c>
       <c r="K16">
-        <v>1.037491981272632</v>
+        <v>1.031010465372445</v>
       </c>
       <c r="L16">
-        <v>0.9987439486263169</v>
+        <v>1.0311391907977</v>
       </c>
       <c r="M16">
-        <v>1.004642123136497</v>
+        <v>1.040171388200393</v>
       </c>
       <c r="N16">
-        <v>1.001424749116731</v>
+        <v>1.011827012237716</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9657216113066616</v>
+        <v>1.017383415496877</v>
       </c>
       <c r="D17">
-        <v>1.02430122791162</v>
+        <v>1.027682888472178</v>
       </c>
       <c r="E17">
-        <v>0.9857579696050702</v>
+        <v>1.028013572602913</v>
       </c>
       <c r="F17">
-        <v>0.9919549800189381</v>
+        <v>1.037115464919664</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045311643379226</v>
+        <v>1.030599024851759</v>
       </c>
       <c r="J17">
-        <v>0.9945639164723008</v>
+        <v>1.023692719401159</v>
       </c>
       <c r="K17">
-        <v>1.037896175048035</v>
+        <v>1.0310779726553</v>
       </c>
       <c r="L17">
-        <v>1.000020407960341</v>
+        <v>1.031407484106648</v>
       </c>
       <c r="M17">
-        <v>1.006105553461645</v>
+        <v>1.04047742242415</v>
       </c>
       <c r="N17">
-        <v>1.001833177399134</v>
+        <v>1.011909948136339</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9668674883976902</v>
+        <v>1.017607621702939</v>
       </c>
       <c r="D18">
-        <v>1.024724529801736</v>
+        <v>1.027764738985853</v>
       </c>
       <c r="E18">
-        <v>0.9867071243725121</v>
+        <v>1.028213073347276</v>
       </c>
       <c r="F18">
-        <v>0.9930122052718746</v>
+        <v>1.037336604776038</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045436209366317</v>
+        <v>1.030607127560651</v>
       </c>
       <c r="J18">
-        <v>0.9952434032307121</v>
+        <v>1.02383468384298</v>
       </c>
       <c r="K18">
-        <v>1.038129709784152</v>
+        <v>1.031117243846707</v>
       </c>
       <c r="L18">
-        <v>1.000759324142416</v>
+        <v>1.031564009833938</v>
       </c>
       <c r="M18">
-        <v>1.00695265724034</v>
+        <v>1.040655949139614</v>
       </c>
       <c r="N18">
-        <v>1.002069484357916</v>
+        <v>1.0119583138577</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9672566917485158</v>
+        <v>1.017684084599193</v>
       </c>
       <c r="D19">
-        <v>1.02486843395545</v>
+        <v>1.02779264541077</v>
       </c>
       <c r="E19">
-        <v>0.9870296660033021</v>
+        <v>1.028281116621651</v>
       </c>
       <c r="F19">
-        <v>0.9933714353698082</v>
+        <v>1.037412023846064</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045478323865033</v>
+        <v>1.030609860848365</v>
       </c>
       <c r="J19">
-        <v>0.9954741939900777</v>
+        <v>1.02388309314898</v>
       </c>
       <c r="K19">
-        <v>1.038208963521707</v>
+        <v>1.03113061651259</v>
       </c>
       <c r="L19">
-        <v>1.001010335788782</v>
+        <v>1.031617386934498</v>
       </c>
       <c r="M19">
-        <v>1.007240412186957</v>
+        <v>1.040716825855034</v>
       </c>
       <c r="N19">
-        <v>1.002149737258262</v>
+        <v>1.011974803716529</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9655101127527281</v>
+        <v>1.017342181277592</v>
       </c>
       <c r="D20">
-        <v>1.02422315961684</v>
+        <v>1.027667831521965</v>
       </c>
       <c r="E20">
-        <v>0.9855828557336684</v>
+        <v>1.027976884813917</v>
       </c>
       <c r="F20">
-        <v>0.9917599106012792</v>
+        <v>1.037074795554083</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045288559525795</v>
+        <v>1.030597520410542</v>
       </c>
       <c r="J20">
-        <v>0.9944385012850848</v>
+        <v>1.023666607586091</v>
       </c>
       <c r="K20">
-        <v>1.037853039411558</v>
+        <v>1.031070740578591</v>
       </c>
       <c r="L20">
-        <v>0.9998840406467927</v>
+        <v>1.031378695169946</v>
       </c>
       <c r="M20">
-        <v>1.005949216240289</v>
+        <v>1.040444585550877</v>
       </c>
       <c r="N20">
-        <v>1.001789556801268</v>
+        <v>1.011901050867587</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9597234824097142</v>
+        <v>1.016231618765494</v>
       </c>
       <c r="D21">
-        <v>1.022095087866958</v>
+        <v>1.027261886759268</v>
       </c>
       <c r="E21">
-        <v>0.9808007595062539</v>
+        <v>1.026989096795862</v>
       </c>
       <c r="F21">
-        <v>0.9864308720258234</v>
+        <v>1.035979554462718</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044646507001326</v>
+        <v>1.030555357949713</v>
       </c>
       <c r="J21">
-        <v>0.9910073006870874</v>
+        <v>1.022963009898734</v>
       </c>
       <c r="K21">
-        <v>1.036669613941668</v>
+        <v>1.030874851128149</v>
       </c>
       <c r="L21">
-        <v>0.9961552309738113</v>
+        <v>1.03060309591129</v>
       </c>
       <c r="M21">
-        <v>1.001673957868661</v>
+        <v>1.039559768679155</v>
       </c>
       <c r="N21">
-        <v>1.000595644851919</v>
+        <v>1.011661163688827</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9559976774241262</v>
+        <v>1.015534131856222</v>
       </c>
       <c r="D22">
-        <v>1.020733469552952</v>
+        <v>1.027006539571792</v>
       </c>
       <c r="E22">
-        <v>0.9777309561838087</v>
+        <v>1.026369036744021</v>
       </c>
       <c r="F22">
-        <v>0.9830080468516931</v>
+        <v>1.035291798461181</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044223310870659</v>
+        <v>1.030527287241729</v>
       </c>
       <c r="J22">
-        <v>0.9887984773167808</v>
+        <v>1.02252080061358</v>
       </c>
       <c r="K22">
-        <v>1.035905085983096</v>
+        <v>1.030750754341557</v>
       </c>
       <c r="L22">
-        <v>0.9937568628651395</v>
+        <v>1.030115765239667</v>
       </c>
       <c r="M22">
-        <v>0.9989238039604692</v>
+        <v>1.03900365643402</v>
       </c>
       <c r="N22">
-        <v>0.9998266161059388</v>
+        <v>1.011510254900703</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9579813941954226</v>
+        <v>1.015903809909862</v>
       </c>
       <c r="D23">
-        <v>1.021457557494168</v>
+        <v>1.027141913996602</v>
       </c>
       <c r="E23">
-        <v>0.9793645024312092</v>
+        <v>1.026697647005945</v>
       </c>
       <c r="F23">
-        <v>0.9848296275162078</v>
+        <v>1.035656308464185</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044449522439594</v>
+        <v>1.03054231580187</v>
       </c>
       <c r="J23">
-        <v>0.9899744572765928</v>
+        <v>1.022755207729864</v>
       </c>
       <c r="K23">
-        <v>1.036312337328495</v>
+        <v>1.030816628399333</v>
       </c>
       <c r="L23">
-        <v>0.9950335597919806</v>
+        <v>1.03037407788376</v>
       </c>
       <c r="M23">
-        <v>1.000387786709321</v>
+        <v>1.039298442031205</v>
       </c>
       <c r="N23">
-        <v>1.000236087134148</v>
+        <v>1.011590262181813</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9656057077671589</v>
+        <v>1.017360812984233</v>
       </c>
       <c r="D24">
-        <v>1.024258443209161</v>
+        <v>1.027674635154001</v>
       </c>
       <c r="E24">
-        <v>0.9856620023811823</v>
+        <v>1.027993462105811</v>
       </c>
       <c r="F24">
-        <v>0.9918480772626487</v>
+        <v>1.037093171996013</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045298996694631</v>
+        <v>1.030598200740298</v>
       </c>
       <c r="J24">
-        <v>0.9944951875545653</v>
+        <v>1.023678406334533</v>
       </c>
       <c r="K24">
-        <v>1.037872537419713</v>
+        <v>1.031074008766332</v>
       </c>
       <c r="L24">
-        <v>0.9999456765022037</v>
+        <v>1.031391703543831</v>
       </c>
       <c r="M24">
-        <v>1.006019878320305</v>
+        <v>1.04045942305216</v>
       </c>
       <c r="N24">
-        <v>1.001809273001509</v>
+        <v>1.011905071189384</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9741005901941042</v>
+        <v>1.019054909995131</v>
       </c>
       <c r="D25">
-        <v>1.027408752279631</v>
+        <v>1.028292261044263</v>
       </c>
       <c r="E25">
-        <v>0.9927143375644811</v>
+        <v>1.029501506495714</v>
       </c>
       <c r="F25">
-        <v>0.9996995867933092</v>
+        <v>1.038764298498148</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046201480676854</v>
+        <v>1.030656226074656</v>
       </c>
       <c r="J25">
-        <v>0.9995321539127932</v>
+        <v>1.024750446210349</v>
       </c>
       <c r="K25">
-        <v>1.039595976961329</v>
+        <v>1.031368573467791</v>
       </c>
       <c r="L25">
-        <v>1.005426816839203</v>
+        <v>1.032573962613719</v>
       </c>
       <c r="M25">
-        <v>1.012302568080583</v>
+        <v>1.041807540882721</v>
       </c>
       <c r="N25">
-        <v>1.003559905326514</v>
+        <v>1.012270020113531</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_187/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_187/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020408781130923</v>
+        <v>0.9806198081893822</v>
       </c>
       <c r="D2">
-        <v>1.02878434037026</v>
+        <v>1.02984372281196</v>
       </c>
       <c r="E2">
-        <v>1.030707764241218</v>
+        <v>0.9981523423559705</v>
       </c>
       <c r="F2">
-        <v>1.040100143588177</v>
+        <v>1.005747144310296</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030696972397081</v>
+        <v>1.046855800545806</v>
       </c>
       <c r="J2">
-        <v>1.0256060573022</v>
+        <v>1.003396043054502</v>
       </c>
       <c r="K2">
-        <v>1.031600150515</v>
+        <v>1.040902373216336</v>
       </c>
       <c r="L2">
-        <v>1.033517994970504</v>
+        <v>1.009637478143323</v>
       </c>
       <c r="M2">
-        <v>1.042883451044268</v>
+        <v>1.01712698876695</v>
       </c>
       <c r="N2">
-        <v>1.012560791950009</v>
+        <v>1.004900745318933</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021393349247925</v>
+        <v>0.9852173136104172</v>
       </c>
       <c r="D3">
-        <v>1.02914128211441</v>
+        <v>1.031567992376903</v>
       </c>
       <c r="E3">
-        <v>1.031585593865843</v>
+        <v>1.002001043751981</v>
       </c>
       <c r="F3">
-        <v>1.041071780442473</v>
+        <v>1.010023323002897</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030723332733326</v>
+        <v>1.0472936471838</v>
       </c>
       <c r="J3">
-        <v>1.026227617167126</v>
+        <v>1.006119245651095</v>
       </c>
       <c r="K3">
-        <v>1.03176631719081</v>
+        <v>1.041812279993966</v>
       </c>
       <c r="L3">
-        <v>1.034204049394636</v>
+        <v>1.01260838471878</v>
       </c>
       <c r="M3">
-        <v>1.043665017484528</v>
+        <v>1.020529540033753</v>
       </c>
       <c r="N3">
-        <v>1.012771732068521</v>
+        <v>1.005844389297141</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022031139767109</v>
+        <v>0.9881330807238876</v>
       </c>
       <c r="D4">
-        <v>1.029372071347479</v>
+        <v>1.032663882852586</v>
       </c>
       <c r="E4">
-        <v>1.032154518113247</v>
+        <v>1.004447868910542</v>
       </c>
       <c r="F4">
-        <v>1.041701271679765</v>
+        <v>1.012740080680706</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030738892160625</v>
+        <v>1.047559949243204</v>
       </c>
       <c r="J4">
-        <v>1.026629947757843</v>
+        <v>1.007845293061072</v>
       </c>
       <c r="K4">
-        <v>1.031872913766997</v>
+        <v>1.04238344082633</v>
       </c>
       <c r="L4">
-        <v>1.03464824669775</v>
+        <v>1.014492906862367</v>
       </c>
       <c r="M4">
-        <v>1.044170903434631</v>
+        <v>1.022687137912949</v>
       </c>
       <c r="N4">
-        <v>1.012908136370038</v>
+        <v>1.006441821986479</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022299436029145</v>
+        <v>0.9893452464291891</v>
       </c>
       <c r="D5">
-        <v>1.029469050915985</v>
+        <v>1.033119905651557</v>
       </c>
       <c r="E5">
-        <v>1.032393910499154</v>
+        <v>1.005466457123137</v>
       </c>
       <c r="F5">
-        <v>1.041966094538081</v>
+        <v>1.013870595303038</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030745074042366</v>
+        <v>1.047667859709847</v>
       </c>
       <c r="J5">
-        <v>1.026799120254467</v>
+        <v>1.00856257929522</v>
       </c>
       <c r="K5">
-        <v>1.031917504295126</v>
+        <v>1.042619379084448</v>
       </c>
       <c r="L5">
-        <v>1.034835051958904</v>
+        <v>1.015276395229864</v>
       </c>
       <c r="M5">
-        <v>1.044383615039873</v>
+        <v>1.02358397151332</v>
       </c>
       <c r="N5">
-        <v>1.012965459295459</v>
+        <v>1.006689924885885</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022344494051537</v>
+        <v>0.9895479905092649</v>
       </c>
       <c r="D6">
-        <v>1.029485331557471</v>
+        <v>1.033196200503515</v>
       </c>
       <c r="E6">
-        <v>1.032434118203549</v>
+        <v>1.005636903155305</v>
       </c>
       <c r="F6">
-        <v>1.042010570256145</v>
+        <v>1.014059744444097</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030746090914481</v>
+        <v>1.047685742118581</v>
       </c>
       <c r="J6">
-        <v>1.02682752695777</v>
+        <v>1.008682533547139</v>
       </c>
       <c r="K6">
-        <v>1.031924978143245</v>
+        <v>1.04265875023947</v>
       </c>
       <c r="L6">
-        <v>1.03486642115208</v>
+        <v>1.015407440780107</v>
       </c>
       <c r="M6">
-        <v>1.044419332398107</v>
+        <v>1.023733963845084</v>
       </c>
       <c r="N6">
-        <v>1.012975082798957</v>
+        <v>1.006731405807179</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022034724091119</v>
+        <v>0.9881493305845159</v>
       </c>
       <c r="D7">
-        <v>1.029373367369667</v>
+        <v>1.032669994603292</v>
       </c>
       <c r="E7">
-        <v>1.032157716036278</v>
+        <v>1.004461518380041</v>
       </c>
       <c r="F7">
-        <v>1.041704809531519</v>
+        <v>1.012755231762</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030738976176053</v>
+        <v>1.047561406994598</v>
       </c>
       <c r="J7">
-        <v>1.02663220812141</v>
+        <v>1.007854909893295</v>
       </c>
       <c r="K7">
-        <v>1.031873510464511</v>
+        <v>1.042386609810804</v>
       </c>
       <c r="L7">
-        <v>1.034650742545679</v>
+        <v>1.014503409928169</v>
       </c>
       <c r="M7">
-        <v>1.044173745553044</v>
+        <v>1.022699161178294</v>
       </c>
       <c r="N7">
-        <v>1.012908902406481</v>
+        <v>1.006445149042569</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02074137332579</v>
+        <v>0.9821861283455181</v>
       </c>
       <c r="D8">
-        <v>1.028905005672677</v>
+        <v>1.03043058833674</v>
       </c>
       <c r="E8">
-        <v>1.031004241791601</v>
+        <v>0.9994622713433675</v>
       </c>
       <c r="F8">
-        <v>1.040428351085138</v>
+        <v>1.007202950633257</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030706190575577</v>
+        <v>1.047007314553761</v>
       </c>
       <c r="J8">
-        <v>1.025816086970659</v>
+        <v>1.004324002397107</v>
       </c>
       <c r="K8">
-        <v>1.031656497894039</v>
+        <v>1.041213550229488</v>
       </c>
       <c r="L8">
-        <v>1.033749792935448</v>
+        <v>1.010649531435119</v>
       </c>
       <c r="M8">
-        <v>1.04314755118848</v>
+        <v>1.018286229406399</v>
       </c>
       <c r="N8">
-        <v>1.012632098166917</v>
+        <v>1.005222439290274</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018467783051723</v>
+        <v>0.9712000032787831</v>
       </c>
       <c r="D9">
-        <v>1.028078437634381</v>
+        <v>1.02632992151654</v>
       </c>
       <c r="E9">
-        <v>1.028978692363243</v>
+        <v>0.9903020503903581</v>
       </c>
       <c r="F9">
-        <v>1.038185079370054</v>
+        <v>0.9970149824661652</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030636984707148</v>
+        <v>1.045899165221448</v>
       </c>
       <c r="J9">
-        <v>1.024379081062558</v>
+        <v>0.9978124242157418</v>
       </c>
       <c r="K9">
-        <v>1.031267074970936</v>
+        <v>1.039009784598967</v>
       </c>
       <c r="L9">
-        <v>1.032164345964668</v>
+        <v>1.003554454411906</v>
       </c>
       <c r="M9">
-        <v>1.041340545575237</v>
+        <v>1.010156675863706</v>
       </c>
       <c r="N9">
-        <v>1.012143675226395</v>
+        <v>1.002962508759375</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016955762872941</v>
+        <v>0.9635165466039105</v>
       </c>
       <c r="D10">
-        <v>1.027526673793902</v>
+        <v>1.023488268160119</v>
       </c>
       <c r="E10">
-        <v>1.027633114536495</v>
+        <v>0.9839333948231181</v>
       </c>
       <c r="F10">
-        <v>1.036693684458129</v>
+        <v>0.9899222239326968</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030583208002578</v>
+        <v>1.045069601561715</v>
       </c>
       <c r="J10">
-        <v>1.023421863183637</v>
+        <v>0.9932563603289235</v>
       </c>
       <c r="K10">
-        <v>1.031002822270585</v>
+        <v>1.037446001106511</v>
       </c>
       <c r="L10">
-        <v>1.031108875798346</v>
+        <v>0.9985989252312643</v>
       </c>
       <c r="M10">
-        <v>1.040136806409196</v>
+        <v>1.004475851346427</v>
       </c>
       <c r="N10">
-        <v>1.011817638421183</v>
+        <v>1.001378329271645</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.016301927770907</v>
+        <v>0.9600950770818926</v>
       </c>
       <c r="D11">
-        <v>1.027287610094918</v>
+        <v>1.022231269718854</v>
       </c>
       <c r="E11">
-        <v>1.027051614499201</v>
+        <v>0.9811073232808295</v>
       </c>
       <c r="F11">
-        <v>1.036048887236079</v>
+        <v>0.9867726099945948</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030558120182267</v>
+        <v>1.044688314360252</v>
       </c>
       <c r="J11">
-        <v>1.023007572705944</v>
+        <v>0.9912276211910953</v>
       </c>
       <c r="K11">
-        <v>1.030887315303973</v>
+        <v>1.036745771441983</v>
       </c>
       <c r="L11">
-        <v>1.030652211324026</v>
+        <v>0.9963945447183918</v>
       </c>
       <c r="M11">
-        <v>1.03961580956776</v>
+        <v>1.001948362280266</v>
       </c>
       <c r="N11">
-        <v>1.011676365300691</v>
+        <v>1.00067233422991</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016059196967308</v>
+        <v>0.9588091448682705</v>
       </c>
       <c r="D12">
-        <v>1.027198791374191</v>
+        <v>1.021760290815596</v>
       </c>
       <c r="E12">
-        <v>1.026835792493957</v>
+        <v>0.9800467411850492</v>
       </c>
       <c r="F12">
-        <v>1.035809530330271</v>
+        <v>0.9855902771562945</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030548531491896</v>
+        <v>1.044543319586529</v>
       </c>
       <c r="J12">
-        <v>1.022853716187377</v>
+        <v>0.9904652003964332</v>
       </c>
       <c r="K12">
-        <v>1.030844249440951</v>
+        <v>1.036482144050047</v>
       </c>
       <c r="L12">
-        <v>1.030482640929205</v>
+        <v>0.9955664650863848</v>
       </c>
       <c r="M12">
-        <v>1.039422323864938</v>
+        <v>1.000998851534844</v>
       </c>
       <c r="N12">
-        <v>1.01162387593721</v>
+        <v>1.000406935641174</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016111257536946</v>
+        <v>0.959085676924202</v>
       </c>
       <c r="D13">
-        <v>1.027217844153525</v>
+        <v>1.021861503162367</v>
       </c>
       <c r="E13">
-        <v>1.026882079200083</v>
+        <v>0.9802747404856744</v>
       </c>
       <c r="F13">
-        <v>1.035860866413929</v>
+        <v>0.9858444647523469</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030550600501898</v>
+        <v>1.044574574702575</v>
       </c>
       <c r="J13">
-        <v>1.02288671759089</v>
+        <v>0.9906291506718475</v>
       </c>
       <c r="K13">
-        <v>1.030853494497589</v>
+        <v>1.036538853810756</v>
       </c>
       <c r="L13">
-        <v>1.030519011845939</v>
+        <v>0.995744518587411</v>
       </c>
       <c r="M13">
-        <v>1.03946382557016</v>
+        <v>1.001203017331443</v>
       </c>
       <c r="N13">
-        <v>1.011635135722592</v>
+        <v>1.000464010100618</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016281860857633</v>
+        <v>0.9599890936053556</v>
       </c>
       <c r="D14">
-        <v>1.027280268703587</v>
+        <v>1.022192422070634</v>
       </c>
       <c r="E14">
-        <v>1.027033771049288</v>
+        <v>0.9810198801157436</v>
       </c>
       <c r="F14">
-        <v>1.036029098862666</v>
+        <v>0.9866751353804815</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030557333080575</v>
+        <v>1.044676398051449</v>
       </c>
       <c r="J14">
-        <v>1.022994854274154</v>
+        <v>0.9911647826627002</v>
       </c>
       <c r="K14">
-        <v>1.030883758751432</v>
+        <v>1.036724052310649</v>
       </c>
       <c r="L14">
-        <v>1.030638193452703</v>
+        <v>0.996326287431985</v>
       </c>
       <c r="M14">
-        <v>1.039599815243887</v>
+        <v>1.001870096636981</v>
       </c>
       <c r="N14">
-        <v>1.011672026801971</v>
+        <v>1.000650461684127</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016386992789059</v>
+        <v>0.9605436981580406</v>
       </c>
       <c r="D15">
-        <v>1.02731872796747</v>
+        <v>1.022395769681071</v>
       </c>
       <c r="E15">
-        <v>1.027127256361768</v>
+        <v>0.9814775291343923</v>
       </c>
       <c r="F15">
-        <v>1.036132772273709</v>
+        <v>0.9871852722923652</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030561445496355</v>
+        <v>1.044738686953977</v>
       </c>
       <c r="J15">
-        <v>1.023061484771576</v>
+        <v>0.9914936154917119</v>
       </c>
       <c r="K15">
-        <v>1.030902384207306</v>
+        <v>1.036837689473139</v>
       </c>
       <c r="L15">
-        <v>1.030711632504841</v>
+        <v>0.9966834908254635</v>
       </c>
       <c r="M15">
-        <v>1.039683607737742</v>
+        <v>1.002279673536059</v>
       </c>
       <c r="N15">
-        <v>1.011694754737308</v>
+        <v>1.000764917161247</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016999174331396</v>
+        <v>0.963741556399871</v>
       </c>
       <c r="D16">
-        <v>1.027542536766567</v>
+        <v>1.023571124539334</v>
       </c>
       <c r="E16">
-        <v>1.027671730978089</v>
+        <v>0.984119462422667</v>
       </c>
       <c r="F16">
-        <v>1.036736498420884</v>
+        <v>0.9901295473875467</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030584835097339</v>
+        <v>1.045094436905169</v>
       </c>
       <c r="J16">
-        <v>1.02344936236486</v>
+        <v>0.9933897846468066</v>
       </c>
       <c r="K16">
-        <v>1.031010465372445</v>
+        <v>1.037491981272632</v>
       </c>
       <c r="L16">
-        <v>1.0311391907977</v>
+        <v>0.9987439486263175</v>
       </c>
       <c r="M16">
-        <v>1.040171388200393</v>
+        <v>1.004642123136498</v>
       </c>
       <c r="N16">
-        <v>1.011827012237716</v>
+        <v>1.001424749116731</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017383415496877</v>
+        <v>0.9657216113066618</v>
       </c>
       <c r="D17">
-        <v>1.027682888472178</v>
+        <v>1.024301227911621</v>
       </c>
       <c r="E17">
-        <v>1.028013572602913</v>
+        <v>0.9857579696050702</v>
       </c>
       <c r="F17">
-        <v>1.037115464919664</v>
+        <v>0.9919549800189383</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030599024851759</v>
+        <v>1.045311643379226</v>
       </c>
       <c r="J17">
-        <v>1.023692719401159</v>
+        <v>0.9945639164723008</v>
       </c>
       <c r="K17">
-        <v>1.0310779726553</v>
+        <v>1.037896175048036</v>
       </c>
       <c r="L17">
-        <v>1.031407484106648</v>
+        <v>1.000020407960341</v>
       </c>
       <c r="M17">
-        <v>1.04047742242415</v>
+        <v>1.006105553461646</v>
       </c>
       <c r="N17">
-        <v>1.011909948136339</v>
+        <v>1.001833177399134</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017607621702939</v>
+        <v>0.9668674883976908</v>
       </c>
       <c r="D18">
-        <v>1.027764738985853</v>
+        <v>1.024724529801737</v>
       </c>
       <c r="E18">
-        <v>1.028213073347276</v>
+        <v>0.9867071243725124</v>
       </c>
       <c r="F18">
-        <v>1.037336604776038</v>
+        <v>0.9930122052718749</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030607127560651</v>
+        <v>1.045436209366317</v>
       </c>
       <c r="J18">
-        <v>1.02383468384298</v>
+        <v>0.9952434032307126</v>
       </c>
       <c r="K18">
-        <v>1.031117243846707</v>
+        <v>1.038129709784152</v>
       </c>
       <c r="L18">
-        <v>1.031564009833938</v>
+        <v>1.000759324142416</v>
       </c>
       <c r="M18">
-        <v>1.040655949139614</v>
+        <v>1.006952657240341</v>
       </c>
       <c r="N18">
-        <v>1.0119583138577</v>
+        <v>1.002069484357916</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017684084599193</v>
+        <v>0.9672566917485155</v>
       </c>
       <c r="D19">
-        <v>1.02779264541077</v>
+        <v>1.02486843395545</v>
       </c>
       <c r="E19">
-        <v>1.028281116621651</v>
+        <v>0.9870296660033016</v>
       </c>
       <c r="F19">
-        <v>1.037412023846064</v>
+        <v>0.9933714353698078</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030609860848365</v>
+        <v>1.045478323865033</v>
       </c>
       <c r="J19">
-        <v>1.02388309314898</v>
+        <v>0.9954741939900774</v>
       </c>
       <c r="K19">
-        <v>1.03113061651259</v>
+        <v>1.038208963521706</v>
       </c>
       <c r="L19">
-        <v>1.031617386934498</v>
+        <v>1.001010335788781</v>
       </c>
       <c r="M19">
-        <v>1.040716825855034</v>
+        <v>1.007240412186956</v>
       </c>
       <c r="N19">
-        <v>1.011974803716529</v>
+        <v>1.002149737258262</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017342181277592</v>
+        <v>0.9655101127527274</v>
       </c>
       <c r="D20">
-        <v>1.027667831521965</v>
+        <v>1.02422315961684</v>
       </c>
       <c r="E20">
-        <v>1.027976884813917</v>
+        <v>0.9855828557336678</v>
       </c>
       <c r="F20">
-        <v>1.037074795554083</v>
+        <v>0.9917599106012783</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030597520410542</v>
+        <v>1.045288559525795</v>
       </c>
       <c r="J20">
-        <v>1.023666607586091</v>
+        <v>0.9944385012850842</v>
       </c>
       <c r="K20">
-        <v>1.031070740578591</v>
+        <v>1.037853039411557</v>
       </c>
       <c r="L20">
-        <v>1.031378695169946</v>
+        <v>0.9998840406467919</v>
       </c>
       <c r="M20">
-        <v>1.040444585550877</v>
+        <v>1.005949216240289</v>
       </c>
       <c r="N20">
-        <v>1.011901050867587</v>
+        <v>1.001789556801268</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016231618765494</v>
+        <v>0.9597234824097141</v>
       </c>
       <c r="D21">
-        <v>1.027261886759268</v>
+        <v>1.022095087866958</v>
       </c>
       <c r="E21">
-        <v>1.026989096795862</v>
+        <v>0.9808007595062536</v>
       </c>
       <c r="F21">
-        <v>1.035979554462718</v>
+        <v>0.986430872025823</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030555357949713</v>
+        <v>1.044646507001327</v>
       </c>
       <c r="J21">
-        <v>1.022963009898734</v>
+        <v>0.9910073006870873</v>
       </c>
       <c r="K21">
-        <v>1.030874851128149</v>
+        <v>1.036669613941669</v>
       </c>
       <c r="L21">
-        <v>1.03060309591129</v>
+        <v>0.996155230973811</v>
       </c>
       <c r="M21">
-        <v>1.039559768679155</v>
+        <v>1.001673957868661</v>
       </c>
       <c r="N21">
-        <v>1.011661163688827</v>
+        <v>1.000595644851919</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015534131856222</v>
+        <v>0.9559976774241256</v>
       </c>
       <c r="D22">
-        <v>1.027006539571792</v>
+        <v>1.020733469552951</v>
       </c>
       <c r="E22">
-        <v>1.026369036744021</v>
+        <v>0.9777309561838081</v>
       </c>
       <c r="F22">
-        <v>1.035291798461181</v>
+        <v>0.9830080468516924</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030527287241729</v>
+        <v>1.044223310870658</v>
       </c>
       <c r="J22">
-        <v>1.02252080061358</v>
+        <v>0.9887984773167803</v>
       </c>
       <c r="K22">
-        <v>1.030750754341557</v>
+        <v>1.035905085983096</v>
       </c>
       <c r="L22">
-        <v>1.030115765239667</v>
+        <v>0.993756862865139</v>
       </c>
       <c r="M22">
-        <v>1.03900365643402</v>
+        <v>0.9989238039604685</v>
       </c>
       <c r="N22">
-        <v>1.011510254900703</v>
+        <v>0.9998266161059387</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015903809909862</v>
+        <v>0.9579813941954227</v>
       </c>
       <c r="D23">
-        <v>1.027141913996602</v>
+        <v>1.021457557494168</v>
       </c>
       <c r="E23">
-        <v>1.026697647005945</v>
+        <v>0.9793645024312092</v>
       </c>
       <c r="F23">
-        <v>1.035656308464185</v>
+        <v>0.984829627516208</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03054231580187</v>
+        <v>1.044449522439594</v>
       </c>
       <c r="J23">
-        <v>1.022755207729864</v>
+        <v>0.9899744572765931</v>
       </c>
       <c r="K23">
-        <v>1.030816628399333</v>
+        <v>1.036312337328495</v>
       </c>
       <c r="L23">
-        <v>1.03037407788376</v>
+        <v>0.9950335597919807</v>
       </c>
       <c r="M23">
-        <v>1.039298442031205</v>
+        <v>1.000387786709321</v>
       </c>
       <c r="N23">
-        <v>1.011590262181813</v>
+        <v>1.000236087134148</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017360812984233</v>
+        <v>0.9656057077671591</v>
       </c>
       <c r="D24">
-        <v>1.027674635154001</v>
+        <v>1.024258443209161</v>
       </c>
       <c r="E24">
-        <v>1.027993462105811</v>
+        <v>0.9856620023811823</v>
       </c>
       <c r="F24">
-        <v>1.037093171996013</v>
+        <v>0.9918480772626488</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030598200740298</v>
+        <v>1.045298996694631</v>
       </c>
       <c r="J24">
-        <v>1.023678406334533</v>
+        <v>0.9944951875545653</v>
       </c>
       <c r="K24">
-        <v>1.031074008766332</v>
+        <v>1.037872537419713</v>
       </c>
       <c r="L24">
-        <v>1.031391703543831</v>
+        <v>0.9999456765022037</v>
       </c>
       <c r="M24">
-        <v>1.04045942305216</v>
+        <v>1.006019878320305</v>
       </c>
       <c r="N24">
-        <v>1.011905071189384</v>
+        <v>1.00180927300151</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019054909995131</v>
+        <v>0.9741005901941039</v>
       </c>
       <c r="D25">
-        <v>1.028292261044263</v>
+        <v>1.027408752279631</v>
       </c>
       <c r="E25">
-        <v>1.029501506495714</v>
+        <v>0.9927143375644811</v>
       </c>
       <c r="F25">
-        <v>1.038764298498148</v>
+        <v>0.9996995867933093</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030656226074656</v>
+        <v>1.046201480676854</v>
       </c>
       <c r="J25">
-        <v>1.024750446210349</v>
+        <v>0.9995321539127932</v>
       </c>
       <c r="K25">
-        <v>1.031368573467791</v>
+        <v>1.039595976961328</v>
       </c>
       <c r="L25">
-        <v>1.032573962613719</v>
+        <v>1.005426816839203</v>
       </c>
       <c r="M25">
-        <v>1.041807540882721</v>
+        <v>1.012302568080583</v>
       </c>
       <c r="N25">
-        <v>1.012270020113531</v>
+        <v>1.003559905326514</v>
       </c>
     </row>
   </sheetData>
